--- a/biology/Médecine/Diagramme_de_Davenport/Diagramme_de_Davenport.xlsx
+++ b/biology/Médecine/Diagramme_de_Davenport/Diagramme_de_Davenport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Diagramme de Davenport est un graphe  utilisé pour suivre l'évolution de l'état acido-basique d'un patient.
-Il est à citer parmi le diagramme de Van Yperseele[réf. nécessaire][1] mais reste le plus utilisé et le plus simple à comprendre.
+Il est à citer parmi le diagramme de Van Yperseele[réf. nécessaire] mais reste le plus utilisé et le plus simple à comprendre.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Fondements chimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagramme de Davenport est fondé sur le tampon bicarbonate de l'organisme. Ce tampon n'est pas unique. Il faudra faire la distinction entre les systèmes tampon ouvert (tampon bicarbonates) — il mérite cette appellation car il possède deux pôles ouverts aux échanges (respiratoire et rénal) — et les autres tampons (phosphates, protéinates, hémoglobine) sont dits fermés car ils ne sont sujets à aucune variation (hors pathologie spécifique).
 Il faut pour comprendre l'article rappeler l'équation générique de Henderson Hesselbach.
@@ -675,7 +689,9 @@
           <t>Fondements physiopathologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue deux pôles.
 On parlera d'un pôle respiratoire car les poumons vont éliminer le CO2 sanguin. Ils permettront de faire diminuer le CO2 et donc, en raisonnant avec l'équation d'Henderson-Hesselbach, de faire augmenter le pH sanguin.
@@ -758,7 +774,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nous avons de prime abord distingué pathologie métabolique et respiratoire, on évoque un diagramme de régulation acido basique ; il faut donc parler de pathologie évoquant un excès d'acide ou plus rigoureusement un pH général de l'organisme assez faible c'est l'acidose. À l'opposé c'est un pH trop élevé, c'est l'alcalose.
 Pour comprendre il faut reprendre la réaction de dissolution du dioxyde de carbone
